--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E521"/>
+  <dimension ref="A1:E526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11144,7 +11144,9 @@
           <t>2024-11-17 22:20:26+00:00</t>
         </is>
       </c>
-      <c r="B521" t="inlineStr"/>
+      <c r="B521" t="n">
+        <v>339.38</v>
+      </c>
       <c r="C521" t="n">
         <v>359.63</v>
       </c>
@@ -11154,6 +11156,111 @@
       <c r="E521" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>367.95</v>
+      </c>
+      <c r="C522" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="D522" t="n">
+        <v>371.41</v>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>361.43</v>
+      </c>
+      <c r="C523" t="n">
+        <v>370.29</v>
+      </c>
+      <c r="D523" t="n">
+        <v>368.59</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>371.22</v>
+      </c>
+      <c r="C524" t="n">
+        <v>373.83</v>
+      </c>
+      <c r="D524" t="n">
+        <v>377.33</v>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>379.21</v>
+      </c>
+      <c r="C525" t="n">
+        <v>379.71</v>
+      </c>
+      <c r="D525" t="n">
+        <v>379.3200000000001</v>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>360.99</v>
+      </c>
+      <c r="C526" t="n">
+        <v>364.14</v>
+      </c>
+      <c r="D526" t="n">
+        <v>374.27</v>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11168,7 +11275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B674"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17916,6 +18023,86 @@
       </c>
       <c r="B674" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-12-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -18084,28 +18271,28 @@
         <v>0.0411</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.226652392482409</v>
+        <v>-0.2331283009919851</v>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K2" t="n">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01890700058995776</v>
+        <v>0.02014592772311241</v>
       </c>
       <c r="M2" t="n">
-        <v>8.172720960814596</v>
+        <v>8.189923700678301</v>
       </c>
       <c r="N2" t="n">
-        <v>114.4943918824542</v>
+        <v>115.042903841399</v>
       </c>
       <c r="O2" t="n">
-        <v>10.70020522618394</v>
+        <v>10.7258055101423</v>
       </c>
       <c r="P2" t="n">
-        <v>371.6194322745062</v>
+        <v>371.6920938366781</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18161,28 +18348,28 @@
         <v>0.041</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2348259468982686</v>
+        <v>-0.2270520751226975</v>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K3" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02537928920216015</v>
+        <v>0.02414432622184481</v>
       </c>
       <c r="M3" t="n">
-        <v>7.027334537135133</v>
+        <v>7.011796622142993</v>
       </c>
       <c r="N3" t="n">
-        <v>91.63982297177007</v>
+        <v>91.15219818721989</v>
       </c>
       <c r="O3" t="n">
-        <v>9.57286910867218</v>
+        <v>9.547366034002252</v>
       </c>
       <c r="P3" t="n">
-        <v>373.1046657561743</v>
+        <v>373.0164981700348</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18238,28 +18425,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2986645159685426</v>
+        <v>-0.2997629172090128</v>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K4" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04167280728581879</v>
+        <v>0.0427328833788384</v>
       </c>
       <c r="M4" t="n">
-        <v>6.655813898959608</v>
+        <v>6.622798431523138</v>
       </c>
       <c r="N4" t="n">
-        <v>89.28510834953275</v>
+        <v>88.53091512309705</v>
       </c>
       <c r="O4" t="n">
-        <v>9.449079762047347</v>
+        <v>9.409086837897556</v>
       </c>
       <c r="P4" t="n">
-        <v>382.2831194709209</v>
+        <v>382.2954601902405</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18296,7 +18483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E521"/>
+  <dimension ref="A1:E526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31902,7 +32089,11 @@
           <t>2024-11-17 22:20:26+00:00</t>
         </is>
       </c>
-      <c r="B521" t="inlineStr"/>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-45.35587052213228,170.85883204559332</t>
+        </is>
+      </c>
       <c r="C521" t="inlineStr">
         <is>
           <t>-45.35609871003594,170.85972700858068</t>
@@ -31916,6 +32107,141 @@
       <c r="E521" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-45.355664386694954,170.85904993002376</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-45.356059946745816,170.85977307271455</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-45.35645197541668,170.86050556419715</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-45.35571142919367,170.85900020645104</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-45.35602518392059,170.8598143828449</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-45.35647046685401,170.86048091705194</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-45.35564079328566,170.85907486804197</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-45.35600076716471,170.85984339826317</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-45.35641315649432,170.86055730566954</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-45.355583144532844,170.8591358021331</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-45.355960210501785,170.85989159330924</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-45.356400107560404,170.86057469847964</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-45.35571460383998,170.85899685086954</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-45.356067602842074,170.85976397464327</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-45.35643322168367,170.86053056093087</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -18116,7 +18116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18207,35 +18207,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18294,27 +18299,28 @@
       <c r="P2" t="n">
         <v>371.6920938366781</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.85624369750082 -45.358319148561044, 170.8629613306571 -45.351963567058526)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8562436975008</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.35831914856104</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8629613306571</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.35196356705853</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.859602514079</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.35514135780979</v>
       </c>
     </row>
@@ -18371,27 +18377,28 @@
       <c r="P3" t="n">
         <v>373.0164981700348</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.85677918233938 -45.358579174164866, 170.86399944125841 -45.3525031166461)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.8567791823394</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.35857917416487</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8639994412584</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.3525031166461</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8603893117989</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.35554114540548</v>
       </c>
     </row>
@@ -18448,27 +18455,28 @@
       <c r="P4" t="n">
         <v>382.2954601902405</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.85725925681402 -45.35888735380202, 170.8649588857839 -45.35311059468375)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.857259256814</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.35888735380202</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.8649588857839</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.35311059468375</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.861109071299</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.35599897424288</v>
       </c>
     </row>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E526"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11259,6 +11259,111 @@
         <v>374.27</v>
       </c>
       <c r="E526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>371.28</v>
+      </c>
+      <c r="C527" t="n">
+        <v>369.21</v>
+      </c>
+      <c r="D527" t="n">
+        <v>381.3</v>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>362.46</v>
+      </c>
+      <c r="C528" t="n">
+        <v>358.58</v>
+      </c>
+      <c r="D528" t="n">
+        <v>371.41</v>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>354.44</v>
+      </c>
+      <c r="C529" t="n">
+        <v>358.55</v>
+      </c>
+      <c r="D529" t="n">
+        <v>372.0700000000001</v>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>371.69</v>
+      </c>
+      <c r="C530" t="n">
+        <v>363.25</v>
+      </c>
+      <c r="D530" t="n">
+        <v>373.31</v>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>360.9</v>
+      </c>
+      <c r="C531" t="n">
+        <v>358.69</v>
+      </c>
+      <c r="D531" t="n">
+        <v>369.7</v>
+      </c>
+      <c r="E531" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11275,7 +11380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18103,6 +18208,56 @@
       </c>
       <c r="B682" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -18276,28 +18431,28 @@
         <v>0.0411</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2331283009919851</v>
+        <v>-0.236584377956943</v>
       </c>
       <c r="J2" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K2" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02014592772311241</v>
+        <v>0.02108954179350631</v>
       </c>
       <c r="M2" t="n">
-        <v>8.189923700678301</v>
+        <v>8.170568124481123</v>
       </c>
       <c r="N2" t="n">
-        <v>115.042903841399</v>
+        <v>114.3410806043013</v>
       </c>
       <c r="O2" t="n">
-        <v>10.7258055101423</v>
+        <v>10.69303888538246</v>
       </c>
       <c r="P2" t="n">
-        <v>371.6920938366781</v>
+        <v>371.7317384601539</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18354,28 +18509,28 @@
         <v>0.041</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2270520751226975</v>
+        <v>-0.2392967192546238</v>
       </c>
       <c r="J3" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K3" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02414432622184481</v>
+        <v>0.02716617616509454</v>
       </c>
       <c r="M3" t="n">
-        <v>7.011796622142993</v>
+        <v>7.002942030932164</v>
       </c>
       <c r="N3" t="n">
-        <v>91.15219818721989</v>
+        <v>90.7016946900025</v>
       </c>
       <c r="O3" t="n">
-        <v>9.547366034002252</v>
+        <v>9.52374373290265</v>
       </c>
       <c r="P3" t="n">
-        <v>373.0164981700348</v>
+        <v>373.1568040243693</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18432,28 +18587,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2997629172090128</v>
+        <v>-0.3020807115293822</v>
       </c>
       <c r="J4" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K4" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0427328833788384</v>
+        <v>0.0441520155611872</v>
       </c>
       <c r="M4" t="n">
-        <v>6.622798431523138</v>
+        <v>6.593498571493786</v>
       </c>
       <c r="N4" t="n">
-        <v>88.53091512309705</v>
+        <v>87.81197814267543</v>
       </c>
       <c r="O4" t="n">
-        <v>9.409086837897556</v>
+        <v>9.370804562185439</v>
       </c>
       <c r="P4" t="n">
-        <v>382.2954601902405</v>
+        <v>382.3221267517433</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18491,7 +18646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E526"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32253,6 +32408,141 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-45.35564036037901,170.8590753256201</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>-45.35603263309879,170.8598055306784</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>-45.35638712419623,170.86059200388073</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-45.35570399763486,170.85900806156087</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-45.356105952285425,170.85971840228532</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-45.35645197541668,170.86050556419715</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-45.35576186276662,170.85894689841808</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-45.35610615920683,170.85971815639115</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-45.35644764763267,170.86051133267563</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-45.35563740218354,170.85907845240374</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-45.35607374151327,170.8597566797916</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-45.35643951664365,170.8605221704207</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-45.355715253199435,170.85899616450052</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-45.356105193573605,170.85971930389732</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-45.35646318831021,170.86049061858975</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11364,6 +11364,90 @@
         <v>369.7</v>
       </c>
       <c r="E531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>382.04</v>
+      </c>
+      <c r="C532" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="D532" t="n">
+        <v>387.98</v>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>376.95</v>
+      </c>
+      <c r="C533" t="n">
+        <v>378.06</v>
+      </c>
+      <c r="D533" t="n">
+        <v>388.71</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>386.29</v>
+      </c>
+      <c r="C534" t="n">
+        <v>383.73</v>
+      </c>
+      <c r="D534" t="n">
+        <v>393.17</v>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>350.13</v>
+      </c>
+      <c r="C535" t="n">
+        <v>345.25</v>
+      </c>
+      <c r="D535" t="n">
+        <v>355.22</v>
+      </c>
+      <c r="E535" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11380,7 +11464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B687"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18258,6 +18342,46 @@
       </c>
       <c r="B687" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -18431,28 +18555,28 @@
         <v>0.0411</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.236584377956943</v>
+        <v>-0.2224255936376813</v>
       </c>
       <c r="J2" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02108954179350631</v>
+        <v>0.01865772196201232</v>
       </c>
       <c r="M2" t="n">
-        <v>8.170568124481123</v>
+        <v>8.228705683869004</v>
       </c>
       <c r="N2" t="n">
-        <v>114.3410806043013</v>
+        <v>115.5394252508297</v>
       </c>
       <c r="O2" t="n">
-        <v>10.69303888538246</v>
+        <v>10.74892670227264</v>
       </c>
       <c r="P2" t="n">
-        <v>371.7317384601539</v>
+        <v>371.5690417678059</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18509,28 +18633,28 @@
         <v>0.041</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2392967192546238</v>
+        <v>-0.2303543310361992</v>
       </c>
       <c r="J3" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K3" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02716617616509454</v>
+        <v>0.02504327541906293</v>
       </c>
       <c r="M3" t="n">
-        <v>7.002942030932164</v>
+        <v>7.077300697059011</v>
       </c>
       <c r="N3" t="n">
-        <v>90.7016946900025</v>
+        <v>92.17325039441181</v>
       </c>
       <c r="O3" t="n">
-        <v>9.52374373290265</v>
+        <v>9.600690099904892</v>
       </c>
       <c r="P3" t="n">
-        <v>373.1568040243693</v>
+        <v>373.0540740945119</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18587,28 +18711,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3020807115293822</v>
+        <v>-0.2906895326804889</v>
       </c>
       <c r="J4" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K4" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0441520155611872</v>
+        <v>0.04068719419963385</v>
       </c>
       <c r="M4" t="n">
-        <v>6.593498571493786</v>
+        <v>6.671919260583324</v>
       </c>
       <c r="N4" t="n">
-        <v>87.81197814267543</v>
+        <v>89.30517887979634</v>
       </c>
       <c r="O4" t="n">
-        <v>9.370804562185439</v>
+        <v>9.45014173860881</v>
       </c>
       <c r="P4" t="n">
-        <v>382.3221267517433</v>
+        <v>382.1912510455426</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18646,7 +18770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32543,6 +32667,114 @@
         </is>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-45.3555627257546,170.85915738451592</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-45.355947174426916,170.85990708455938</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-45.356343321714625,170.8606503877006</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-45.3555994506918,170.85911856672072</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-45.355971591200216,170.85987806919616</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-45.356338534914556,170.86065676796287</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-45.35553206150334,170.85918979619217</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-45.35593248297475,170.8599245429438</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-45.35630928952505,170.86069574871988</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-45.3557929598489,170.85891402889666</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-45.356197894306476,170.85960914312466</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-45.35655813717299,170.86036406139618</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E535"/>
+  <dimension ref="A1:E536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11450,6 +11450,27 @@
       <c r="E535" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>372</v>
+      </c>
+      <c r="C536" t="n">
+        <v>371.52</v>
+      </c>
+      <c r="D536" t="n">
+        <v>381.83</v>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11464,7 +11485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18382,6 +18403,16 @@
       </c>
       <c r="B691" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -18555,28 +18586,28 @@
         <v>0.0411</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2224255936376813</v>
+        <v>-0.219762068148864</v>
       </c>
       <c r="J2" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01865772196201232</v>
+        <v>0.01828480501758745</v>
       </c>
       <c r="M2" t="n">
-        <v>8.228705683869004</v>
+        <v>8.223846226693576</v>
       </c>
       <c r="N2" t="n">
-        <v>115.5394252508297</v>
+        <v>115.3842032911586</v>
       </c>
       <c r="O2" t="n">
-        <v>10.74892670227264</v>
+        <v>10.74170392866786</v>
       </c>
       <c r="P2" t="n">
-        <v>371.5690417678059</v>
+        <v>371.5383370538951</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18633,28 +18664,28 @@
         <v>0.041</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2303543310361992</v>
+        <v>-0.2284381758503887</v>
       </c>
       <c r="J3" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K3" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02504327541906293</v>
+        <v>0.0247290034137323</v>
       </c>
       <c r="M3" t="n">
-        <v>7.077300697059011</v>
+        <v>7.072078554062071</v>
       </c>
       <c r="N3" t="n">
-        <v>92.17325039441181</v>
+        <v>92.02508985408051</v>
       </c>
       <c r="O3" t="n">
-        <v>9.600690099904892</v>
+        <v>9.592970856522003</v>
       </c>
       <c r="P3" t="n">
-        <v>373.0540740945119</v>
+        <v>373.0319680743897</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18711,28 +18742,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2906895326804889</v>
+        <v>-0.2876590545415041</v>
       </c>
       <c r="J4" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K4" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04068719419963385</v>
+        <v>0.03998951391883732</v>
       </c>
       <c r="M4" t="n">
-        <v>6.671919260583324</v>
+        <v>6.672774992453587</v>
       </c>
       <c r="N4" t="n">
-        <v>89.30517887979634</v>
+        <v>89.2277007565016</v>
       </c>
       <c r="O4" t="n">
-        <v>9.45014173860881</v>
+        <v>9.446041538999371</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1912510455426</v>
+        <v>382.1563090327799</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18770,7 +18801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E535"/>
+  <dimension ref="A1:E536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32775,6 +32806,33 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-45.355635165499095,170.859080816557</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-45.35601670013343,170.8598244644761</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-45.356383648850795,170.8605966361332</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E536"/>
+  <dimension ref="A1:E538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11471,6 +11471,48 @@
       <c r="E536" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>374.35</v>
+      </c>
+      <c r="C537" t="n">
+        <v>375.24</v>
+      </c>
+      <c r="D537" t="n">
+        <v>386.88</v>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>371.04</v>
+      </c>
+      <c r="C538" t="n">
+        <v>378.84</v>
+      </c>
+      <c r="D538" t="n">
+        <v>385.26</v>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11485,7 +11527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B692"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18413,6 +18455,26 @@
       </c>
       <c r="B692" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -18586,28 +18648,28 @@
         <v>0.0411</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.219762068148864</v>
+        <v>-0.2138735415843288</v>
       </c>
       <c r="J2" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K2" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01828480501758745</v>
+        <v>0.01744953982948827</v>
       </c>
       <c r="M2" t="n">
-        <v>8.223846226693576</v>
+        <v>8.216404257723724</v>
       </c>
       <c r="N2" t="n">
-        <v>115.3842032911586</v>
+        <v>115.1200536339625</v>
       </c>
       <c r="O2" t="n">
-        <v>10.74170392866786</v>
+        <v>10.72940136419374</v>
       </c>
       <c r="P2" t="n">
-        <v>371.5383370538951</v>
+        <v>371.4702246424586</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18664,28 +18726,28 @@
         <v>0.041</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2284381758503887</v>
+        <v>-0.2198345070993284</v>
       </c>
       <c r="J3" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K3" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0247290034137323</v>
+        <v>0.0230328171310239</v>
       </c>
       <c r="M3" t="n">
-        <v>7.072078554062071</v>
+        <v>7.084046454836914</v>
       </c>
       <c r="N3" t="n">
-        <v>92.02508985408051</v>
+        <v>92.05894553663451</v>
       </c>
       <c r="O3" t="n">
-        <v>9.592970856522003</v>
+        <v>9.594735303104224</v>
       </c>
       <c r="P3" t="n">
-        <v>373.0319680743897</v>
+        <v>372.9323292885853</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18742,28 +18804,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2876590545415041</v>
+        <v>-0.2780413048898621</v>
       </c>
       <c r="J4" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03998951391883732</v>
+        <v>0.03754777902816941</v>
       </c>
       <c r="M4" t="n">
-        <v>6.672774992453587</v>
+        <v>6.690797076322729</v>
       </c>
       <c r="N4" t="n">
-        <v>89.2277007565016</v>
+        <v>89.38222233071417</v>
       </c>
       <c r="O4" t="n">
-        <v>9.446041538999371</v>
+        <v>9.454217171755374</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1563090327799</v>
+        <v>382.0450098962432</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18801,7 +18863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E536"/>
+  <dimension ref="A1:E538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32833,6 +32895,60 @@
         </is>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-45.355618209986204,170.85909873835786</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-45.35599104184447,170.8598549552448</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-45.35635053470031,170.86064077360473</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-45.355642092005596,170.85907349530757</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-45.3559662112339,170.85988446241393</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-45.35636115745948,170.8606266146591</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E538"/>
+  <dimension ref="A1:E539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11511,6 +11511,27 @@
         <v>385.26</v>
       </c>
       <c r="E538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>369.94</v>
+      </c>
+      <c r="C539" t="n">
+        <v>377.3</v>
+      </c>
+      <c r="D539" t="n">
+        <v>386.9500000000001</v>
+      </c>
+      <c r="E539" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11527,7 +11548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18475,6 +18496,26 @@
       </c>
       <c r="B694" t="n">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -18648,28 +18689,28 @@
         <v>0.0411</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2138735415843288</v>
+        <v>-0.2121431990005314</v>
       </c>
       <c r="J2" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K2" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01744953982948827</v>
+        <v>0.01723963979944643</v>
       </c>
       <c r="M2" t="n">
-        <v>8.216404257723724</v>
+        <v>8.207474949704798</v>
       </c>
       <c r="N2" t="n">
-        <v>115.1200536339625</v>
+        <v>114.9234459720057</v>
       </c>
       <c r="O2" t="n">
-        <v>10.72940136419374</v>
+        <v>10.72023535058842</v>
       </c>
       <c r="P2" t="n">
-        <v>371.4702246424586</v>
+        <v>371.4501515995259</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18726,28 +18767,28 @@
         <v>0.041</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2198345070993284</v>
+        <v>-0.215466242633529</v>
       </c>
       <c r="J3" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K3" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0230328171310239</v>
+        <v>0.0221899349155954</v>
       </c>
       <c r="M3" t="n">
-        <v>7.084046454836914</v>
+        <v>7.090542218886922</v>
       </c>
       <c r="N3" t="n">
-        <v>92.05894553663451</v>
+        <v>92.07649761231627</v>
       </c>
       <c r="O3" t="n">
-        <v>9.594735303104224</v>
+        <v>9.59564993173033</v>
       </c>
       <c r="P3" t="n">
-        <v>372.9323292885853</v>
+        <v>372.8816106625922</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18804,28 +18845,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2780413048898621</v>
+        <v>-0.2729056206250854</v>
       </c>
       <c r="J4" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K4" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03754777902816941</v>
+        <v>0.03625317527606653</v>
       </c>
       <c r="M4" t="n">
-        <v>6.690797076322729</v>
+        <v>6.701320717795665</v>
       </c>
       <c r="N4" t="n">
-        <v>89.38222233071417</v>
+        <v>89.49456732634675</v>
       </c>
       <c r="O4" t="n">
-        <v>9.454217171755374</v>
+        <v>9.46015683413054</v>
       </c>
       <c r="P4" t="n">
-        <v>382.0450098962432</v>
+        <v>381.9854101643129</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18863,7 +18904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E538"/>
+  <dimension ref="A1:E539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32949,6 +32990,33 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-45.355650028627,170.85906510637372</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-45.355976833218314,170.85987183990588</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-45.35635007569216,170.8606413854109</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E539"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11532,6 +11532,90 @@
         <v>386.9500000000001</v>
       </c>
       <c r="E539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:15+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>366.27</v>
+      </c>
+      <c r="C540" t="n">
+        <v>361.58</v>
+      </c>
+      <c r="D540" t="n">
+        <v>370.12</v>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>366.91</v>
+      </c>
+      <c r="C541" t="n">
+        <v>369.33</v>
+      </c>
+      <c r="D541" t="n">
+        <v>385.38</v>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>360.04</v>
+      </c>
+      <c r="C542" t="n">
+        <v>362.71</v>
+      </c>
+      <c r="D542" t="n">
+        <v>367.62</v>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>370.72</v>
+      </c>
+      <c r="C543" t="n">
+        <v>368.21</v>
+      </c>
+      <c r="D543" t="n">
+        <v>377.82</v>
+      </c>
+      <c r="E543" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11548,7 +11632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B696"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18516,6 +18600,56 @@
       </c>
       <c r="B696" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -18689,28 +18823,28 @@
         <v>0.0411</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2121431990005314</v>
+        <v>-0.2120428554400783</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K2" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01723963979944643</v>
+        <v>0.01749335972701127</v>
       </c>
       <c r="M2" t="n">
-        <v>8.207474949704798</v>
+        <v>8.166432095958173</v>
       </c>
       <c r="N2" t="n">
-        <v>114.9234459720057</v>
+        <v>114.1341729599286</v>
       </c>
       <c r="O2" t="n">
-        <v>10.72023535058842</v>
+        <v>10.68335962887746</v>
       </c>
       <c r="P2" t="n">
-        <v>371.4501515995259</v>
+        <v>371.4489684839866</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18767,28 +18901,28 @@
         <v>0.041</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.215466242633529</v>
+        <v>-0.2185638112464339</v>
       </c>
       <c r="J3" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K3" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0221899349155954</v>
+        <v>0.02316750774740528</v>
       </c>
       <c r="M3" t="n">
-        <v>7.090542218886922</v>
+        <v>7.059908160129091</v>
       </c>
       <c r="N3" t="n">
-        <v>92.07649761231627</v>
+        <v>91.45479388911103</v>
       </c>
       <c r="O3" t="n">
-        <v>9.59564993173033</v>
+        <v>9.563199981654208</v>
       </c>
       <c r="P3" t="n">
-        <v>372.8816106625922</v>
+        <v>372.9176910345889</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18845,28 +18979,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2729056206250854</v>
+        <v>-0.2723117160271857</v>
       </c>
       <c r="J4" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K4" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03625317527606653</v>
+        <v>0.03652483421729746</v>
       </c>
       <c r="M4" t="n">
-        <v>6.701320717795665</v>
+        <v>6.698667433426483</v>
       </c>
       <c r="N4" t="n">
-        <v>89.49456732634675</v>
+        <v>89.17168157283271</v>
       </c>
       <c r="O4" t="n">
-        <v>9.46015683413054</v>
+        <v>9.44307585338764</v>
       </c>
       <c r="P4" t="n">
-        <v>381.9854101643129</v>
+        <v>381.9784776168788</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18904,7 +19038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E539"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33017,6 +33151,114 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:15+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-45.35567650807724,170.8590371178228</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-45.35608526014217,170.8597429916948</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-45.35646043426638,170.86049428944125</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-45.35567189040798,170.85904199866192</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-45.35603180541236,170.85980651425254</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-45.3563603705885,170.86062766347007</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-45.35572145818959,170.8589896058627</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-45.35607746610004,170.85975225370103</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-45.356476827382586,170.8604724391295</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-45.35564440084098,170.8590710548907</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-45.35603953048533,170.85979733422585</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-45.35640994344051,170.860561588322</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -2012,7 +2012,7 @@
         <v>381.37</v>
       </c>
       <c r="D76" t="n">
-        <v>394.5700000000001</v>
+        <v>394.57</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>370.49</v>
       </c>
       <c r="D85" t="n">
-        <v>373.7000000000001</v>
+        <v>373.7</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>379.49</v>
       </c>
       <c r="D105" t="n">
-        <v>388.9500000000001</v>
+        <v>388.95</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>386.5700000000001</v>
+        <v>386.57</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>379.85</v>
       </c>
       <c r="D114" t="n">
-        <v>381.2000000000001</v>
+        <v>381.2</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>374.21</v>
       </c>
       <c r="D131" t="n">
-        <v>383.7000000000001</v>
+        <v>383.7</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>368.06</v>
       </c>
       <c r="D141" t="n">
-        <v>374.8200000000001</v>
+        <v>374.82</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>369.59</v>
       </c>
       <c r="D160" t="n">
-        <v>399.0700000000001</v>
+        <v>399.07</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>365.1</v>
       </c>
       <c r="D199" t="n">
-        <v>381.2600000000001</v>
+        <v>381.26</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>358.7</v>
       </c>
       <c r="D213" t="n">
-        <v>370.5100000000001</v>
+        <v>370.51</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>360.11</v>
       </c>
       <c r="D238" t="n">
-        <v>370.0700000000001</v>
+        <v>370.07</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>371.23</v>
       </c>
       <c r="D375" t="n">
-        <v>380.0100000000001</v>
+        <v>380.01</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>362.15</v>
       </c>
       <c r="D410" t="n">
-        <v>367.3200000000001</v>
+        <v>367.32</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>368.59</v>
       </c>
       <c r="D415" t="n">
-        <v>373.0700000000001</v>
+        <v>373.07</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>375.4</v>
       </c>
       <c r="D426" t="n">
-        <v>378.0700000000001</v>
+        <v>378.07</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>368.48</v>
       </c>
       <c r="D459" t="n">
-        <v>376.2600000000001</v>
+        <v>376.26</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>368.63</v>
       </c>
       <c r="D516" t="n">
-        <v>372.5700000000001</v>
+        <v>372.57</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>379.71</v>
       </c>
       <c r="D525" t="n">
-        <v>379.3200000000001</v>
+        <v>379.32</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>358.55</v>
       </c>
       <c r="D529" t="n">
-        <v>372.0700000000001</v>
+        <v>372.07</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>377.3</v>
       </c>
       <c r="D539" t="n">
-        <v>386.9500000000001</v>
+        <v>386.95</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2723117160271857</v>
+        <v>-0.2723117160271858</v>
       </c>
       <c r="J4" t="n">
         <v>542</v>
@@ -18991,13 +18991,13 @@
         <v>0.03652483421729746</v>
       </c>
       <c r="M4" t="n">
-        <v>6.698667433426483</v>
+        <v>6.698667433426482</v>
       </c>
       <c r="N4" t="n">
-        <v>89.17168157283271</v>
+        <v>89.17168157283268</v>
       </c>
       <c r="O4" t="n">
-        <v>9.44307585338764</v>
+        <v>9.443075853387638</v>
       </c>
       <c r="P4" t="n">
         <v>381.9784776168788</v>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -18814,13 +18814,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0384</v>
+        <v>0.0435</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0411</v>
+        <v>0.1393</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2120428554400783</v>
@@ -18892,13 +18892,13 @@
         <v>0.5000665376384299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0391</v>
+        <v>0.0357</v>
       </c>
       <c r="H3" t="n">
-        <v>0.041</v>
+        <v>0.0698</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2185638112464339</v>
@@ -18970,13 +18970,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0491</v>
+        <v>0.0508</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0552</v>
+        <v>0.1085</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2723117160271858</v>

--- a/data/nzd0483/nzd0483.xlsx
+++ b/data/nzd0483/nzd0483.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E546"/>
+  <dimension ref="A1:E547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11903,6 +11903,27 @@
         <v>379.07</v>
       </c>
       <c r="E546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>365.64</v>
+      </c>
+      <c r="C547" t="n">
+        <v>369.63</v>
+      </c>
+      <c r="D547" t="n">
+        <v>378.32</v>
+      </c>
+      <c r="E547" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -11919,7 +11940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B705"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18977,6 +18998,16 @@
       </c>
       <c r="B705" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -19147,31 +19178,31 @@
         <v>0.0436</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1378</v>
+        <v>0.1368</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2368859983664299</v>
+        <v>-0.2369904052140812</v>
       </c>
       <c r="J2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1522269703503539</v>
+        <v>0.1528503833270594</v>
       </c>
       <c r="M2" t="n">
-        <v>2.710630818440152</v>
+        <v>2.706054102569111</v>
       </c>
       <c r="N2" t="n">
-        <v>13.91720373100528</v>
+        <v>13.89183725964483</v>
       </c>
       <c r="O2" t="n">
-        <v>3.730576863034091</v>
+        <v>3.727175506954941</v>
       </c>
       <c r="P2" t="n">
-        <v>372.1130698977441</v>
+        <v>372.114309002478</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19229,31 +19260,31 @@
         <v>0.0359</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0706</v>
+        <v>0.0701</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2275634485619771</v>
+        <v>-0.2266088212425885</v>
       </c>
       <c r="J3" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K3" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1799423537586698</v>
+        <v>0.1791415142784929</v>
       </c>
       <c r="M3" t="n">
-        <v>2.361427574300892</v>
+        <v>2.361206434561568</v>
       </c>
       <c r="N3" t="n">
-        <v>10.50996350421656</v>
+        <v>10.50099007591967</v>
       </c>
       <c r="O3" t="n">
-        <v>3.241907386742651</v>
+        <v>3.240523117633891</v>
       </c>
       <c r="P3" t="n">
-        <v>373.2206783343237</v>
+        <v>373.2093487782923</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19311,31 +19342,31 @@
         <v>0.0514</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1109</v>
+        <v>0.1107</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2405858797399119</v>
+        <v>-0.2393254397766504</v>
       </c>
       <c r="J4" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K4" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L4" t="n">
-        <v>0.233253342738617</v>
+        <v>0.2317060991116673</v>
       </c>
       <c r="M4" t="n">
-        <v>2.232831809739011</v>
+        <v>2.235198177053927</v>
       </c>
       <c r="N4" t="n">
-        <v>8.473239722135862</v>
+        <v>8.475634587392221</v>
       </c>
       <c r="O4" t="n">
-        <v>2.910882979807993</v>
+        <v>2.911294314800931</v>
       </c>
       <c r="P4" t="n">
-        <v>381.4961092596881</v>
+        <v>381.4811503067039</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19377,7 +19408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E546"/>
+  <dimension ref="A1:E547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34127,6 +34158,33 @@
         </is>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-45.3556810535952,170.85903231324602</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-45.356029736196234,170.85980897318782</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-45.35640666481399,170.86056595837508</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
